--- a/BWSC2019-EneMane/Ps/Ps.xlsx
+++ b/BWSC2019-EneMane/Ps/Ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\BWSC2019-EneMane\Ps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868122FB-EDD7-4281-B0C2-F149BA789C76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A89837-FD54-45E3-800E-E9A9F46641B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D44BCD3-D845-4E3A-A4BD-2B3838F8AC19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
   <si>
     <t>Count</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,26 @@
     <t>Kspot’[km]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スタート前の入力</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レース中の入力</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +175,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +197,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +315,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +325,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +537,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="41148" rIns="27432" bIns="41148" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="54864" rIns="36576" bIns="54864" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -684,7 +734,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E46079D-1C99-407C-B866-5937541E63E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +845,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C330DD33-1DB1-4FB5-8B85-44D0E0C6F872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -847,7 +897,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3B119C-935E-416D-AEF4-1BC538B513A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +963,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD976507-CE7D-41C9-9EBF-D45B0BABABC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -996,7 +1046,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CA1D90-901D-4C88-BB8D-53D8F1B97DE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,76 +1382,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0BA127-BFA0-401F-88E4-F3BD5A6FE9C2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="8"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="18"/>
+    <col min="4" max="4" width="8.6640625" style="17"/>
+    <col min="5" max="5" width="13.33203125" style="15" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="4"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7">
         <v>70</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -1411,20 +1468,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>43751.25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="16">
         <v>9.8000000000000007</v>
       </c>
       <c r="H6">
@@ -1435,20 +1492,20 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>43751.256944444445</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>36</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="16">
         <v>36</v>
       </c>
       <c r="H7">
@@ -1459,20 +1516,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>43751.263888888891</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>37.549999999999997</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>75.099999999999994</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="16">
         <v>75.099999999999994</v>
       </c>
       <c r="H8">
@@ -1483,20 +1540,20 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>43751.270833333336</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
         <v>60.9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>121.8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="16">
         <v>121.8</v>
       </c>
       <c r="H9">
@@ -1507,20 +1564,20 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>43751.277777777781</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
         <v>86.55</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17">
         <v>173.1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="16">
         <v>173.1</v>
       </c>
       <c r="H10">
@@ -1531,20 +1588,20 @@
         <v>173.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>43751.284722222219</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="17">
         <v>113.55</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17">
         <v>227.1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="16">
         <v>227.1</v>
       </c>
       <c r="H11">
@@ -1555,20 +1612,20 @@
         <v>227.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>43751.291666666664</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="17">
         <v>141.30000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="17">
         <v>282.60000000000002</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="16">
         <v>282.60000000000002</v>
       </c>
       <c r="H12">
@@ -1579,20 +1636,20 @@
         <v>282.60000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>43751.298611111109</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="17">
         <v>169.45</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>338.9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="16">
         <v>338.9</v>
       </c>
       <c r="H13">
@@ -1602,21 +1659,24 @@
       <c r="I13" s="9">
         <v>338.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N13" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>43751.305555555555</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="17">
         <v>197.75</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="17">
         <v>395.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="16">
         <v>395.5</v>
       </c>
       <c r="H14">
@@ -1626,21 +1686,24 @@
       <c r="I14" s="9">
         <v>395.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N14" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>43751.3125</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <v>225.95</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="17">
         <v>451.9</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="16">
         <v>451.9</v>
       </c>
       <c r="H15">
@@ -1651,20 +1714,20 @@
         <v>451.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>43751.319444444445</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="17">
         <v>253.95</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="17">
         <v>507.9</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="16">
         <v>507.9</v>
       </c>
       <c r="H16">
@@ -1682,13 +1745,13 @@
       <c r="B17" s="1">
         <v>43751.326388888891</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="17">
         <v>281.55</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>563.1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="16">
         <v>563.1</v>
       </c>
       <c r="H17">
@@ -1706,13 +1769,13 @@
       <c r="B18" s="1">
         <v>43751.333333333336</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="17">
         <v>308.75</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>617.5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="16">
         <v>617.5</v>
       </c>
       <c r="H18">
@@ -1730,13 +1793,13 @@
       <c r="B19" s="1">
         <v>43751.340277777781</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="17">
         <v>335.35</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="17">
         <v>670.7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="16">
         <v>670.7</v>
       </c>
       <c r="H19">
@@ -1754,13 +1817,13 @@
       <c r="B20" s="1">
         <v>43751.347222222219</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="17">
         <v>361.35</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="17">
         <v>722.7</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="16">
         <v>722.7</v>
       </c>
       <c r="H20">
@@ -1778,13 +1841,13 @@
       <c r="B21" s="1">
         <v>43751.354166666664</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="17">
         <v>386.65</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>773.3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="16">
         <v>773.3</v>
       </c>
       <c r="H21">
@@ -1802,13 +1865,13 @@
       <c r="B22" s="1">
         <v>43751.361111111109</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="17">
         <v>411.2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="17">
         <v>822.4</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="16">
         <v>822.4</v>
       </c>
       <c r="H22">
@@ -1826,13 +1889,13 @@
       <c r="B23" s="1">
         <v>43751.368055555555</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="17">
         <v>434.9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="17">
         <v>869.8</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="16">
         <v>869.8</v>
       </c>
       <c r="H23">
@@ -1850,13 +1913,13 @@
       <c r="B24" s="1">
         <v>43751.375</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="17">
         <v>457.7</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="17">
         <v>915.4</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="16">
         <v>915.4</v>
       </c>
       <c r="H24">
@@ -1874,13 +1937,13 @@
       <c r="B25" s="1">
         <v>43751.381944444445</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="17">
         <v>479.55</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="17">
         <v>959.1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="16">
         <v>959.1</v>
       </c>
       <c r="H25">
@@ -1898,13 +1961,13 @@
       <c r="B26" s="1">
         <v>43751.388888888891</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="17">
         <v>500.45</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="17">
         <v>1000.9</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="16">
         <v>1000.9</v>
       </c>
       <c r="H26">
@@ -1922,13 +1985,13 @@
       <c r="B27" s="1">
         <v>43751.395833333336</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="17">
         <v>520.25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="17">
         <v>1040.5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="16">
         <v>1040.5</v>
       </c>
       <c r="H27">
@@ -1946,13 +2009,13 @@
       <c r="B28" s="1">
         <v>43751.402777777781</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="17">
         <v>539.04999999999995</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="17">
         <v>1078.0999999999999</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="16">
         <v>1078.0999999999999</v>
       </c>
       <c r="H28">
@@ -1970,13 +2033,13 @@
       <c r="B29" s="1">
         <v>43751.409722222219</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="17">
         <v>556.70000000000005</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="17">
         <v>1113.4000000000001</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="16">
         <v>1113.4000000000001</v>
       </c>
       <c r="H29">
@@ -1994,13 +2057,13 @@
       <c r="B30" s="1">
         <v>43751.416666666664</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="17">
         <v>573.15</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="17">
         <v>1146.3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="16">
         <v>1146.3</v>
       </c>
       <c r="H30">
@@ -2018,13 +2081,13 @@
       <c r="B31" s="1">
         <v>43751.423611111109</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="17">
         <v>588.45000000000005</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="17">
         <v>1176.9000000000001</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="16">
         <v>1176.9000000000001</v>
       </c>
       <c r="H31">
@@ -2042,13 +2105,13 @@
       <c r="B32" s="1">
         <v>43751.430555555555</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="17">
         <v>602.5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="17">
         <v>1205</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="16">
         <v>1205</v>
       </c>
       <c r="H32">
@@ -2066,13 +2129,13 @@
       <c r="B33" s="1">
         <v>43751.4375</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="17">
         <v>615.35</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="17">
         <v>1230.7</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="16">
         <v>1230.7</v>
       </c>
       <c r="H33">
@@ -2090,13 +2153,13 @@
       <c r="B34" s="1">
         <v>43751.444444444445</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="17">
         <v>626.9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="17">
         <v>1253.8</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="16">
         <v>1253.8</v>
       </c>
       <c r="H34">
@@ -2114,13 +2177,13 @@
       <c r="B35" s="1">
         <v>43751.451388888891</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="17">
         <v>637.1</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="17">
         <v>1274.2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="16">
         <v>1274.2</v>
       </c>
       <c r="H35">
@@ -2138,13 +2201,13 @@
       <c r="B36" s="1">
         <v>43751.458333333336</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="17">
         <v>646.04999999999995</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="17">
         <v>1292.0999999999999</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="16">
         <v>1292.0999999999999</v>
       </c>
       <c r="H36">
@@ -2162,13 +2225,13 @@
       <c r="B37" s="1">
         <v>43751.465277777781</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="17">
         <v>653.6</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="17">
         <v>1307.2</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="16">
         <v>1307.2</v>
       </c>
       <c r="H37">
@@ -2186,13 +2249,13 @@
       <c r="B38" s="1">
         <v>43751.472222222219</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="17">
         <v>659.8</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="17">
         <v>1319.6</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="16">
         <v>1319.6</v>
       </c>
       <c r="H38">
@@ -2210,13 +2273,13 @@
       <c r="B39" s="1">
         <v>43751.479166666664</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="17">
         <v>664.65</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="17">
         <v>1329.3</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="16">
         <v>1329.3</v>
       </c>
       <c r="H39">
@@ -2234,13 +2297,13 @@
       <c r="B40" s="1">
         <v>43751.486111111109</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="17">
         <v>668.15</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="17">
         <v>1336.3</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="16">
         <v>1336.3</v>
       </c>
       <c r="H40">
@@ -2258,13 +2321,13 @@
       <c r="B41" s="1">
         <v>43751.493055555555</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="17">
         <v>670.25</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="17">
         <v>1340.5</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="16">
         <v>1340.5</v>
       </c>
       <c r="H41">
@@ -2282,13 +2345,13 @@
       <c r="B42" s="1">
         <v>43751.5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="17">
         <v>670.9</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="17">
         <v>1341.8</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="16">
         <v>1341.8</v>
       </c>
       <c r="H42">
@@ -2306,13 +2369,13 @@
       <c r="B43" s="1">
         <v>43751.506944444445</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="17">
         <v>1340.5</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="17">
         <v>1340.5</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="16">
         <v>1340.5</v>
       </c>
       <c r="H43">
@@ -2330,13 +2393,13 @@
       <c r="B44" s="1">
         <v>43751.513888888891</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="17">
         <v>1336.3</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="17">
         <v>1336.3</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="16">
         <v>1336.3</v>
       </c>
       <c r="H44">
@@ -2354,13 +2417,13 @@
       <c r="B45" s="1">
         <v>43751.520833333336</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="17">
         <v>1329.3</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="17">
         <v>1329.3</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="16">
         <v>1329.3</v>
       </c>
       <c r="H45">
@@ -2378,13 +2441,13 @@
       <c r="B46" s="1">
         <v>43751.527777777781</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="17">
         <v>1319.7</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="17">
         <v>1319.7</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="16">
         <v>1319.7</v>
       </c>
       <c r="H46">
@@ -2402,13 +2465,13 @@
       <c r="B47" s="1">
         <v>43751.534722222219</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="17">
         <v>1307.2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="17">
         <v>1307.2</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="16">
         <v>1307.2</v>
       </c>
       <c r="H47">
@@ -2426,13 +2489,13 @@
       <c r="B48" s="1">
         <v>43751.541666666664</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="17">
         <v>1292.0999999999999</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="17">
         <v>1292.0999999999999</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="16">
         <v>1292.0999999999999</v>
       </c>
       <c r="H48">
@@ -2450,13 +2513,13 @@
       <c r="B49" s="1">
         <v>43751.548611111109</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="17">
         <v>1274.3</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="17">
         <v>1274.3</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="16">
         <v>1274.3</v>
       </c>
       <c r="H49">
@@ -2474,13 +2537,13 @@
       <c r="B50" s="1">
         <v>43751.555555555555</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="17">
         <v>1253.8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="17">
         <v>1253.8</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="16">
         <v>1253.8</v>
       </c>
       <c r="H50">
@@ -2498,13 +2561,13 @@
       <c r="B51" s="1">
         <v>43751.5625</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="17">
         <v>1230.7</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="17">
         <v>1230.7</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="16">
         <v>1230.7</v>
       </c>
       <c r="H51">
@@ -2522,13 +2585,13 @@
       <c r="B52" s="1">
         <v>43751.569444444445</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="17">
         <v>1205.0999999999999</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="17">
         <v>1205.0999999999999</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="16">
         <v>1205.0999999999999</v>
       </c>
       <c r="H52">
@@ -2546,13 +2609,13 @@
       <c r="B53" s="1">
         <v>43751.576388888891</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="17">
         <v>1176.9000000000001</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="17">
         <v>1176.9000000000001</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="16">
         <v>1176.9000000000001</v>
       </c>
       <c r="H53">
@@ -2570,13 +2633,13 @@
       <c r="B54" s="1">
         <v>43751.583333333336</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="17">
         <v>1146.4000000000001</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="17">
         <v>1146.4000000000001</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="16">
         <v>1146.4000000000001</v>
       </c>
       <c r="H54">
@@ -2594,13 +2657,13 @@
       <c r="B55" s="1">
         <v>43751.590277777781</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="17">
         <v>1113.4000000000001</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="17">
         <v>1113.4000000000001</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="16">
         <v>1113.4000000000001</v>
       </c>
       <c r="H55">
@@ -2618,13 +2681,13 @@
       <c r="B56" s="1">
         <v>43751.597222222219</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="17">
         <v>1078.0999999999999</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="17">
         <v>1078.0999999999999</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="16">
         <v>1078.0999999999999</v>
       </c>
       <c r="H56">
@@ -2642,13 +2705,13 @@
       <c r="B57" s="1">
         <v>43751.604166666664</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="17">
         <v>1040.5999999999999</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="17">
         <v>1040.5999999999999</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="16">
         <v>1040.5999999999999</v>
       </c>
       <c r="H57">
@@ -2666,13 +2729,13 @@
       <c r="B58" s="1">
         <v>43751.611111111109</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="17">
         <v>1000.9</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="17">
         <v>1000.9</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="16">
         <v>1000.9</v>
       </c>
       <c r="H58">
@@ -2690,13 +2753,13 @@
       <c r="B59" s="1">
         <v>43751.618055555555</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="17">
         <v>959.1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="17">
         <v>959.1</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="16">
         <v>959.1</v>
       </c>
       <c r="H59">
@@ -2714,13 +2777,13 @@
       <c r="B60" s="1">
         <v>43751.625</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="17">
         <v>915.4</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="17">
         <v>915.4</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="16">
         <v>915.4</v>
       </c>
       <c r="H60">
@@ -2738,13 +2801,13 @@
       <c r="B61" s="1">
         <v>43751.631944444445</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="17">
         <v>869.8</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="17">
         <v>869.8</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="16">
         <v>869.8</v>
       </c>
       <c r="H61">
@@ -2762,13 +2825,13 @@
       <c r="B62" s="1">
         <v>43751.638888888891</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="17">
         <v>822.4</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="17">
         <v>822.4</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="16">
         <v>822.4</v>
       </c>
       <c r="H62">
@@ -2786,13 +2849,13 @@
       <c r="B63" s="1">
         <v>43751.645833333336</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="17">
         <v>773.4</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="17">
         <v>773.4</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="16">
         <v>773.4</v>
       </c>
       <c r="H63">
@@ -2810,13 +2873,13 @@
       <c r="B64" s="1">
         <v>43751.652777777781</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="17">
         <v>722.8</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="17">
         <v>722.8</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="16">
         <v>722.8</v>
       </c>
       <c r="H64">
@@ -2834,13 +2897,13 @@
       <c r="B65" s="1">
         <v>43751.659722222219</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="17">
         <v>670.8</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="17">
         <v>670.8</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="16">
         <v>670.8</v>
       </c>
       <c r="H65">
@@ -2858,13 +2921,13 @@
       <c r="B66" s="1">
         <v>43751.666666666664</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="17">
         <v>617.5</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="17">
         <v>617.5</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="16">
         <v>617.5</v>
       </c>
       <c r="H66">
@@ -2882,13 +2945,13 @@
       <c r="B67" s="1">
         <v>43751.673611111109</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="17">
         <v>563.20000000000005</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="17">
         <v>563.20000000000005</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="16">
         <v>563.20000000000005</v>
       </c>
       <c r="H67">
@@ -2906,13 +2969,13 @@
       <c r="B68" s="1">
         <v>43751.680555555555</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="17">
         <v>507.9</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="17">
         <v>507.9</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="16">
         <v>507.9</v>
       </c>
       <c r="H68">
@@ -2930,13 +2993,13 @@
       <c r="B69" s="1">
         <v>43751.6875</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="17">
         <v>452</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="17">
         <v>452</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="16">
         <v>452</v>
       </c>
       <c r="H69">
@@ -2954,13 +3017,13 @@
       <c r="B70" s="1">
         <v>43751.694444444445</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="17">
         <v>395.5</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="17">
         <v>395.5</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="16">
         <v>395.5</v>
       </c>
       <c r="H70">
@@ -2978,13 +3041,13 @@
       <c r="B71" s="1">
         <v>43751.701388888891</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="17">
         <v>339</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="17">
         <v>339</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="16">
         <v>339</v>
       </c>
       <c r="H71">
@@ -3002,13 +3065,13 @@
       <c r="B72" s="1">
         <v>43751.708333333336</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="17">
         <v>282.7</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="17">
         <v>282.7</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="16">
         <v>282.7</v>
       </c>
       <c r="H72">
@@ -3026,13 +3089,13 @@
       <c r="B73" s="1">
         <v>43751.715277777781</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="17">
         <v>227.1</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="17">
         <v>227.1</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="16">
         <v>227.1</v>
       </c>
       <c r="H73">
@@ -3050,13 +3113,13 @@
       <c r="B74" s="1">
         <v>43751.722222222219</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="17">
         <v>173.2</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="17">
         <v>173.2</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="16">
         <v>173.2</v>
       </c>
       <c r="H74">
@@ -3074,13 +3137,13 @@
       <c r="B75" s="1">
         <v>43751.729166666664</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="17">
         <v>121.9</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="17">
         <v>121.9</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="16">
         <v>121.9</v>
       </c>
       <c r="H75">
@@ -3098,13 +3161,13 @@
       <c r="B76" s="1">
         <v>43751.736111111109</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="17">
         <v>75.099999999999994</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="17">
         <v>75.099999999999994</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="16">
         <v>75.099999999999994</v>
       </c>
       <c r="H76">
@@ -3122,13 +3185,13 @@
       <c r="B77" s="1">
         <v>43751.743055555555</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="17">
         <v>36</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="17">
         <v>36</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="16">
         <v>36</v>
       </c>
       <c r="H77">
@@ -3146,13 +3209,13 @@
       <c r="B78" s="1">
         <v>43751.75</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="16">
         <v>9.8000000000000007</v>
       </c>
       <c r="H78">
@@ -3227,13 +3290,13 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3241,21 +3304,21 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
@@ -3284,7 +3347,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>43752.25</v>
       </c>
       <c r="C6">
@@ -3308,7 +3371,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>43752.256944444445</v>
       </c>
       <c r="C7">
@@ -3332,7 +3395,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43752.263888888891</v>
       </c>
       <c r="C8">
@@ -3356,7 +3419,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>43752.270833333336</v>
       </c>
       <c r="C9">
@@ -3380,7 +3443,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>43752.277777777781</v>
       </c>
       <c r="C10">
@@ -3404,7 +3467,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>43752.284722222219</v>
       </c>
       <c r="C11">
@@ -3428,7 +3491,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>43752.291666666664</v>
       </c>
       <c r="C12">
@@ -3452,7 +3515,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>43752.298611111109</v>
       </c>
       <c r="C13">
@@ -3476,7 +3539,7 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>43752.305555555555</v>
       </c>
       <c r="C14">
@@ -3500,7 +3563,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>43752.3125</v>
       </c>
       <c r="C15">
@@ -3524,7 +3587,7 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>43752.319444444445</v>
       </c>
       <c r="C16">
@@ -3548,7 +3611,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>43752.326388888891</v>
       </c>
       <c r="C17">
@@ -3572,7 +3635,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>43752.333333333336</v>
       </c>
       <c r="C18">
@@ -3596,7 +3659,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>43752.340277777781</v>
       </c>
       <c r="C19">
@@ -3620,7 +3683,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>43752.347222222219</v>
       </c>
       <c r="C20">
@@ -3644,7 +3707,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>43752.354166666664</v>
       </c>
       <c r="C21">
@@ -3668,7 +3731,7 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>43752.361111111109</v>
       </c>
       <c r="C22">
@@ -3692,7 +3755,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>43752.368055555555</v>
       </c>
       <c r="C23">
@@ -3716,7 +3779,7 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>43752.375</v>
       </c>
       <c r="C24">
@@ -3740,7 +3803,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>43752.381944444445</v>
       </c>
       <c r="C25">
@@ -3764,7 +3827,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>43752.388888888891</v>
       </c>
       <c r="C26">
@@ -3788,7 +3851,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>43752.395833333336</v>
       </c>
       <c r="C27">
@@ -3812,7 +3875,7 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>43752.402777777781</v>
       </c>
       <c r="C28">
@@ -3836,7 +3899,7 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>43752.409722222219</v>
       </c>
       <c r="C29">
@@ -3860,7 +3923,7 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>43752.416666666664</v>
       </c>
       <c r="C30">
@@ -3884,7 +3947,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>43752.423611111109</v>
       </c>
       <c r="C31">
@@ -3908,7 +3971,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>43752.430555555555</v>
       </c>
       <c r="C32">
@@ -3932,7 +3995,7 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>43752.4375</v>
       </c>
       <c r="C33">
@@ -3956,7 +4019,7 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>43752.444444444445</v>
       </c>
       <c r="C34">
@@ -3980,7 +4043,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>43752.451388888891</v>
       </c>
       <c r="C35">
@@ -4004,7 +4067,7 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>43752.458333333336</v>
       </c>
       <c r="C36">
@@ -4028,7 +4091,7 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>43752.465277777781</v>
       </c>
       <c r="C37">
@@ -4052,7 +4115,7 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>43752.472222222219</v>
       </c>
       <c r="C38">
@@ -4076,7 +4139,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>43752.479166666664</v>
       </c>
       <c r="C39">
@@ -4100,7 +4163,7 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>43752.486111111109</v>
       </c>
       <c r="C40">
@@ -4124,7 +4187,7 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>43752.493055555555</v>
       </c>
       <c r="C41">
@@ -4148,7 +4211,7 @@
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>43752.5</v>
       </c>
       <c r="C42">
@@ -4172,7 +4235,7 @@
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>43752.506944444445</v>
       </c>
       <c r="C43">
@@ -4196,7 +4259,7 @@
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>43752.513888888891</v>
       </c>
       <c r="C44">
@@ -4220,7 +4283,7 @@
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>43752.520833333336</v>
       </c>
       <c r="C45">
@@ -4244,7 +4307,7 @@
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>43752.527777777781</v>
       </c>
       <c r="C46">
@@ -4268,7 +4331,7 @@
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>43752.534722222219</v>
       </c>
       <c r="C47">
@@ -4292,7 +4355,7 @@
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>43752.541666666664</v>
       </c>
       <c r="C48">
@@ -4316,7 +4379,7 @@
       <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>43752.548611111109</v>
       </c>
       <c r="C49">
@@ -4340,7 +4403,7 @@
       <c r="A50">
         <v>45</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>43752.555555555555</v>
       </c>
       <c r="C50">
@@ -4364,7 +4427,7 @@
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>43752.5625</v>
       </c>
       <c r="C51">
@@ -4388,7 +4451,7 @@
       <c r="A52">
         <v>47</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>43752.569444444445</v>
       </c>
       <c r="C52">
@@ -4412,7 +4475,7 @@
       <c r="A53">
         <v>48</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>43752.576388888891</v>
       </c>
       <c r="C53">
@@ -4433,10 +4496,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>43752.583333333336</v>
       </c>
       <c r="C54">
@@ -4460,7 +4523,7 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>43752.590277777781</v>
       </c>
       <c r="C55">
@@ -4484,7 +4547,7 @@
       <c r="A56">
         <v>51</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>43752.597222222219</v>
       </c>
       <c r="C56">
@@ -4508,7 +4571,7 @@
       <c r="A57">
         <v>52</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>43752.604166666664</v>
       </c>
       <c r="C57">
@@ -4532,7 +4595,7 @@
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>43752.611111111109</v>
       </c>
       <c r="C58">
@@ -4556,7 +4619,7 @@
       <c r="A59">
         <v>54</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>43752.618055555555</v>
       </c>
       <c r="C59">
@@ -4580,7 +4643,7 @@
       <c r="A60">
         <v>55</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>43752.625</v>
       </c>
       <c r="C60">
@@ -4604,7 +4667,7 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>43752.631944444445</v>
       </c>
       <c r="C61">
@@ -4628,7 +4691,7 @@
       <c r="A62">
         <v>57</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>43752.638888888891</v>
       </c>
       <c r="C62">
@@ -4652,7 +4715,7 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>43752.645833333336</v>
       </c>
       <c r="C63">
@@ -4676,7 +4739,7 @@
       <c r="A64">
         <v>59</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>43752.652777777781</v>
       </c>
       <c r="C64">
@@ -4700,7 +4763,7 @@
       <c r="A65">
         <v>60</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>43752.659722222219</v>
       </c>
       <c r="C65">
@@ -4724,7 +4787,7 @@
       <c r="A66">
         <v>61</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>43752.666666666664</v>
       </c>
       <c r="C66">
@@ -4748,7 +4811,7 @@
       <c r="A67">
         <v>62</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>43752.673611111109</v>
       </c>
       <c r="C67">
@@ -4772,7 +4835,7 @@
       <c r="A68">
         <v>63</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>43752.680555555555</v>
       </c>
       <c r="C68">
@@ -4796,7 +4859,7 @@
       <c r="A69">
         <v>64</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>43752.6875</v>
       </c>
       <c r="C69">
@@ -4820,7 +4883,7 @@
       <c r="A70">
         <v>65</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>43752.694444444445</v>
       </c>
       <c r="C70">
@@ -4844,7 +4907,7 @@
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>43752.701388888891</v>
       </c>
       <c r="C71">
@@ -4868,7 +4931,7 @@
       <c r="A72">
         <v>67</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>43752.708333333336</v>
       </c>
       <c r="C72">
@@ -4892,7 +4955,7 @@
       <c r="A73">
         <v>68</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>43752.715277777781</v>
       </c>
       <c r="C73">
@@ -4916,7 +4979,7 @@
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>43752.722222222219</v>
       </c>
       <c r="C74">
@@ -4940,7 +5003,7 @@
       <c r="A75">
         <v>70</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>43752.729166666664</v>
       </c>
       <c r="C75">
@@ -4964,7 +5027,7 @@
       <c r="A76">
         <v>71</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>43752.736111111109</v>
       </c>
       <c r="C76">
@@ -4988,7 +5051,7 @@
       <c r="A77">
         <v>72</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>43752.743055555555</v>
       </c>
       <c r="C77">
@@ -5012,7 +5075,7 @@
       <c r="A78">
         <v>73</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>43752.75</v>
       </c>
       <c r="C78">
@@ -5065,13 +5128,13 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5079,21 +5142,21 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
@@ -5122,7 +5185,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>43752.25</v>
       </c>
       <c r="C6">
@@ -5146,7 +5209,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>43752.256944444445</v>
       </c>
       <c r="C7">
@@ -5170,7 +5233,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43752.263888888891</v>
       </c>
       <c r="C8">
@@ -5194,7 +5257,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>43752.270833333336</v>
       </c>
       <c r="C9">
@@ -5218,7 +5281,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>43752.277777777781</v>
       </c>
       <c r="C10">
@@ -5242,7 +5305,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>43752.284722222219</v>
       </c>
       <c r="C11">
@@ -5266,7 +5329,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>43752.291666666664</v>
       </c>
       <c r="C12">
@@ -5290,7 +5353,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>43752.298611111109</v>
       </c>
       <c r="C13">
@@ -5314,7 +5377,7 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>43752.305555555555</v>
       </c>
       <c r="C14">
@@ -5338,7 +5401,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>43752.3125</v>
       </c>
       <c r="C15">
@@ -5362,7 +5425,7 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>43752.319444444445</v>
       </c>
       <c r="C16">
@@ -5386,7 +5449,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>43752.326388888891</v>
       </c>
       <c r="C17">
@@ -5410,7 +5473,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>43752.333333333336</v>
       </c>
       <c r="C18">
@@ -5434,7 +5497,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>43752.340277777781</v>
       </c>
       <c r="C19">
@@ -5458,7 +5521,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>43752.347222222219</v>
       </c>
       <c r="C20">
@@ -5482,7 +5545,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>43752.354166666664</v>
       </c>
       <c r="C21">
@@ -5506,7 +5569,7 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>43752.361111111109</v>
       </c>
       <c r="C22">
@@ -5530,7 +5593,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>43752.368055555555</v>
       </c>
       <c r="C23">
@@ -5554,7 +5617,7 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>43752.375</v>
       </c>
       <c r="C24">
@@ -5578,7 +5641,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>43752.381944444445</v>
       </c>
       <c r="C25">
@@ -5602,7 +5665,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>43752.388888888891</v>
       </c>
       <c r="C26">
@@ -5626,7 +5689,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>43752.395833333336</v>
       </c>
       <c r="C27">
@@ -5650,7 +5713,7 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>43752.402777777781</v>
       </c>
       <c r="C28">
@@ -5674,7 +5737,7 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>43752.409722222219</v>
       </c>
       <c r="C29">
@@ -5698,7 +5761,7 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>43752.416666666664</v>
       </c>
       <c r="C30">
@@ -5722,7 +5785,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>43752.423611111109</v>
       </c>
       <c r="C31">
@@ -5746,7 +5809,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>43752.430555555555</v>
       </c>
       <c r="C32">
@@ -5770,7 +5833,7 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>43752.4375</v>
       </c>
       <c r="C33">
@@ -5794,7 +5857,7 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>43752.444444444445</v>
       </c>
       <c r="C34">
@@ -5818,7 +5881,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>43752.451388888891</v>
       </c>
       <c r="C35">
@@ -5842,7 +5905,7 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>43752.458333333336</v>
       </c>
       <c r="C36">
@@ -5866,7 +5929,7 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>43752.465277777781</v>
       </c>
       <c r="C37">
@@ -5890,7 +5953,7 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>43752.472222222219</v>
       </c>
       <c r="C38">
@@ -5914,7 +5977,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>43752.479166666664</v>
       </c>
       <c r="C39">
@@ -5938,7 +6001,7 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>43752.486111111109</v>
       </c>
       <c r="C40">
@@ -5962,7 +6025,7 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>43752.493055555555</v>
       </c>
       <c r="C41">
@@ -5986,7 +6049,7 @@
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>43752.5</v>
       </c>
       <c r="C42">
@@ -6010,7 +6073,7 @@
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>43752.506944444445</v>
       </c>
       <c r="C43">
@@ -6034,7 +6097,7 @@
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>43752.513888888891</v>
       </c>
       <c r="C44">
@@ -6058,7 +6121,7 @@
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>43752.520833333336</v>
       </c>
       <c r="C45">
@@ -6082,7 +6145,7 @@
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>43752.527777777781</v>
       </c>
       <c r="C46">
@@ -6106,7 +6169,7 @@
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>43752.534722222219</v>
       </c>
       <c r="C47">
@@ -6130,7 +6193,7 @@
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>43752.541666666664</v>
       </c>
       <c r="C48">
@@ -6154,7 +6217,7 @@
       <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>43752.548611111109</v>
       </c>
       <c r="C49">
@@ -6178,7 +6241,7 @@
       <c r="A50">
         <v>45</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>43752.555555555555</v>
       </c>
       <c r="C50">
@@ -6202,7 +6265,7 @@
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>43752.5625</v>
       </c>
       <c r="C51">
@@ -6226,7 +6289,7 @@
       <c r="A52">
         <v>47</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>43752.569444444445</v>
       </c>
       <c r="C52">
@@ -6250,7 +6313,7 @@
       <c r="A53">
         <v>48</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>43752.576388888891</v>
       </c>
       <c r="C53">
@@ -6271,10 +6334,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>43752.583333333336</v>
       </c>
       <c r="C54">
@@ -6298,7 +6361,7 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>43752.590277777781</v>
       </c>
       <c r="C55">
@@ -6322,7 +6385,7 @@
       <c r="A56">
         <v>51</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>43752.597222222219</v>
       </c>
       <c r="C56">
@@ -6346,7 +6409,7 @@
       <c r="A57">
         <v>52</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>43752.604166666664</v>
       </c>
       <c r="C57">
@@ -6370,7 +6433,7 @@
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>43752.611111111109</v>
       </c>
       <c r="C58">
@@ -6394,7 +6457,7 @@
       <c r="A59">
         <v>54</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>43752.618055555555</v>
       </c>
       <c r="C59">
@@ -6418,7 +6481,7 @@
       <c r="A60">
         <v>55</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>43752.625</v>
       </c>
       <c r="C60">
@@ -6442,7 +6505,7 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>43752.631944444445</v>
       </c>
       <c r="C61">
@@ -6466,7 +6529,7 @@
       <c r="A62">
         <v>57</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>43752.638888888891</v>
       </c>
       <c r="C62">
@@ -6490,7 +6553,7 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>43752.645833333336</v>
       </c>
       <c r="C63">
@@ -6514,7 +6577,7 @@
       <c r="A64">
         <v>59</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>43752.652777777781</v>
       </c>
       <c r="C64">
@@ -6538,7 +6601,7 @@
       <c r="A65">
         <v>60</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>43752.659722222219</v>
       </c>
       <c r="C65">
@@ -6562,7 +6625,7 @@
       <c r="A66">
         <v>61</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>43752.666666666664</v>
       </c>
       <c r="C66">
@@ -6586,7 +6649,7 @@
       <c r="A67">
         <v>62</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>43752.673611111109</v>
       </c>
       <c r="C67">
@@ -6610,7 +6673,7 @@
       <c r="A68">
         <v>63</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>43752.680555555555</v>
       </c>
       <c r="C68">
@@ -6634,7 +6697,7 @@
       <c r="A69">
         <v>64</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>43752.6875</v>
       </c>
       <c r="C69">
@@ -6658,7 +6721,7 @@
       <c r="A70">
         <v>65</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>43752.694444444445</v>
       </c>
       <c r="C70">
@@ -6682,7 +6745,7 @@
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>43752.701388888891</v>
       </c>
       <c r="C71">
@@ -6706,7 +6769,7 @@
       <c r="A72">
         <v>67</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>43752.708333333336</v>
       </c>
       <c r="C72">
@@ -6730,7 +6793,7 @@
       <c r="A73">
         <v>68</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>43752.715277777781</v>
       </c>
       <c r="C73">
@@ -6754,7 +6817,7 @@
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>43752.722222222219</v>
       </c>
       <c r="C74">
@@ -6778,7 +6841,7 @@
       <c r="A75">
         <v>70</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>43752.729166666664</v>
       </c>
       <c r="C75">
@@ -6802,7 +6865,7 @@
       <c r="A76">
         <v>71</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>43752.736111111109</v>
       </c>
       <c r="C76">
@@ -6826,7 +6889,7 @@
       <c r="A77">
         <v>72</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>43752.743055555555</v>
       </c>
       <c r="C77">
@@ -6850,7 +6913,7 @@
       <c r="A78">
         <v>73</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>43752.75</v>
       </c>
       <c r="C78">
@@ -6903,13 +6966,13 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6917,21 +6980,21 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
@@ -6960,7 +7023,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>43752.25</v>
       </c>
       <c r="C6">
@@ -6984,7 +7047,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>43752.256944444445</v>
       </c>
       <c r="C7">
@@ -7008,7 +7071,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43752.263888888891</v>
       </c>
       <c r="C8">
@@ -7032,7 +7095,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>43752.270833333336</v>
       </c>
       <c r="C9">
@@ -7056,7 +7119,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>43752.277777777781</v>
       </c>
       <c r="C10">
@@ -7080,7 +7143,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>43752.284722222219</v>
       </c>
       <c r="C11">
@@ -7104,7 +7167,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>43752.291666666664</v>
       </c>
       <c r="C12">
@@ -7128,7 +7191,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>43752.298611111109</v>
       </c>
       <c r="C13">
@@ -7152,7 +7215,7 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>43752.305555555555</v>
       </c>
       <c r="C14">
@@ -7176,7 +7239,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>43752.3125</v>
       </c>
       <c r="C15">
@@ -7200,7 +7263,7 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>43752.319444444445</v>
       </c>
       <c r="C16">
@@ -7224,7 +7287,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>43752.326388888891</v>
       </c>
       <c r="C17">
@@ -7248,7 +7311,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>43752.333333333336</v>
       </c>
       <c r="C18">
@@ -7272,7 +7335,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>43752.340277777781</v>
       </c>
       <c r="C19">
@@ -7296,7 +7359,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>43752.347222222219</v>
       </c>
       <c r="C20">
@@ -7320,7 +7383,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>43752.354166666664</v>
       </c>
       <c r="C21">
@@ -7344,7 +7407,7 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>43752.361111111109</v>
       </c>
       <c r="C22">
@@ -7368,7 +7431,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>43752.368055555555</v>
       </c>
       <c r="C23">
@@ -7392,7 +7455,7 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>43752.375</v>
       </c>
       <c r="C24">
@@ -7416,7 +7479,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>43752.381944444445</v>
       </c>
       <c r="C25">
@@ -7440,7 +7503,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>43752.388888888891</v>
       </c>
       <c r="C26">
@@ -7464,7 +7527,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>43752.395833333336</v>
       </c>
       <c r="C27">
@@ -7488,7 +7551,7 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>43752.402777777781</v>
       </c>
       <c r="C28">
@@ -7512,7 +7575,7 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>43752.409722222219</v>
       </c>
       <c r="C29">
@@ -7536,7 +7599,7 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>43752.416666666664</v>
       </c>
       <c r="C30">
@@ -7560,7 +7623,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>43752.423611111109</v>
       </c>
       <c r="C31">
@@ -7584,7 +7647,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>43752.430555555555</v>
       </c>
       <c r="C32">
@@ -7608,7 +7671,7 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>43752.4375</v>
       </c>
       <c r="C33">
@@ -7632,7 +7695,7 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>43752.444444444445</v>
       </c>
       <c r="C34">
@@ -7656,7 +7719,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>43752.451388888891</v>
       </c>
       <c r="C35">
@@ -7680,7 +7743,7 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>43752.458333333336</v>
       </c>
       <c r="C36">
@@ -7704,7 +7767,7 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>43752.465277777781</v>
       </c>
       <c r="C37">
@@ -7728,7 +7791,7 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>43752.472222222219</v>
       </c>
       <c r="C38">
@@ -7752,7 +7815,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>43752.479166666664</v>
       </c>
       <c r="C39">
@@ -7776,7 +7839,7 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>43752.486111111109</v>
       </c>
       <c r="C40">
@@ -7800,7 +7863,7 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>43752.493055555555</v>
       </c>
       <c r="C41">
@@ -7824,7 +7887,7 @@
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>43752.5</v>
       </c>
       <c r="C42">
@@ -7848,7 +7911,7 @@
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>43752.506944444445</v>
       </c>
       <c r="C43">
@@ -7872,7 +7935,7 @@
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>43752.513888888891</v>
       </c>
       <c r="C44">
@@ -7896,7 +7959,7 @@
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>43752.520833333336</v>
       </c>
       <c r="C45">
@@ -7920,7 +7983,7 @@
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>43752.527777777781</v>
       </c>
       <c r="C46">
@@ -7944,7 +8007,7 @@
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>43752.534722222219</v>
       </c>
       <c r="C47">
@@ -7968,7 +8031,7 @@
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>43752.541666666664</v>
       </c>
       <c r="C48">
@@ -7992,7 +8055,7 @@
       <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>43752.548611111109</v>
       </c>
       <c r="C49">
@@ -8016,7 +8079,7 @@
       <c r="A50">
         <v>45</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>43752.555555555555</v>
       </c>
       <c r="C50">
@@ -8040,7 +8103,7 @@
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>43752.5625</v>
       </c>
       <c r="C51">
@@ -8064,7 +8127,7 @@
       <c r="A52">
         <v>47</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>43752.569444444445</v>
       </c>
       <c r="C52">
@@ -8088,7 +8151,7 @@
       <c r="A53">
         <v>48</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>43752.576388888891</v>
       </c>
       <c r="C53">
@@ -8109,10 +8172,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>43752.583333333336</v>
       </c>
       <c r="C54">
@@ -8136,7 +8199,7 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>43752.590277777781</v>
       </c>
       <c r="C55">
@@ -8160,7 +8223,7 @@
       <c r="A56">
         <v>51</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>43752.597222222219</v>
       </c>
       <c r="C56">
@@ -8184,7 +8247,7 @@
       <c r="A57">
         <v>52</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>43752.604166666664</v>
       </c>
       <c r="C57">
@@ -8208,7 +8271,7 @@
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>43752.611111111109</v>
       </c>
       <c r="C58">
@@ -8232,7 +8295,7 @@
       <c r="A59">
         <v>54</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>43752.618055555555</v>
       </c>
       <c r="C59">
@@ -8256,7 +8319,7 @@
       <c r="A60">
         <v>55</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>43752.625</v>
       </c>
       <c r="C60">
@@ -8280,7 +8343,7 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>43752.631944444445</v>
       </c>
       <c r="C61">
@@ -8304,7 +8367,7 @@
       <c r="A62">
         <v>57</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>43752.638888888891</v>
       </c>
       <c r="C62">
@@ -8328,7 +8391,7 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>43752.645833333336</v>
       </c>
       <c r="C63">
@@ -8352,7 +8415,7 @@
       <c r="A64">
         <v>59</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>43752.652777777781</v>
       </c>
       <c r="C64">
@@ -8376,7 +8439,7 @@
       <c r="A65">
         <v>60</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>43752.659722222219</v>
       </c>
       <c r="C65">
@@ -8400,7 +8463,7 @@
       <c r="A66">
         <v>61</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>43752.666666666664</v>
       </c>
       <c r="C66">
@@ -8424,7 +8487,7 @@
       <c r="A67">
         <v>62</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>43752.673611111109</v>
       </c>
       <c r="C67">
@@ -8448,7 +8511,7 @@
       <c r="A68">
         <v>63</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>43752.680555555555</v>
       </c>
       <c r="C68">
@@ -8472,7 +8535,7 @@
       <c r="A69">
         <v>64</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>43752.6875</v>
       </c>
       <c r="C69">
@@ -8496,7 +8559,7 @@
       <c r="A70">
         <v>65</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>43752.694444444445</v>
       </c>
       <c r="C70">
@@ -8520,7 +8583,7 @@
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>43752.701388888891</v>
       </c>
       <c r="C71">
@@ -8544,7 +8607,7 @@
       <c r="A72">
         <v>67</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>43752.708333333336</v>
       </c>
       <c r="C72">
@@ -8568,7 +8631,7 @@
       <c r="A73">
         <v>68</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>43752.715277777781</v>
       </c>
       <c r="C73">
@@ -8592,7 +8655,7 @@
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>43752.722222222219</v>
       </c>
       <c r="C74">
@@ -8616,7 +8679,7 @@
       <c r="A75">
         <v>70</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>43752.729166666664</v>
       </c>
       <c r="C75">
@@ -8640,7 +8703,7 @@
       <c r="A76">
         <v>71</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>43752.736111111109</v>
       </c>
       <c r="C76">
@@ -8664,7 +8727,7 @@
       <c r="A77">
         <v>72</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>43752.743055555555</v>
       </c>
       <c r="C77">
@@ -8688,7 +8751,7 @@
       <c r="A78">
         <v>73</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>43752.75</v>
       </c>
       <c r="C78">
@@ -8741,13 +8804,13 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8755,21 +8818,21 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
@@ -8798,7 +8861,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>43752.25</v>
       </c>
       <c r="C6">
@@ -8822,7 +8885,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>43752.256944444445</v>
       </c>
       <c r="C7">
@@ -8846,7 +8909,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43752.263888888891</v>
       </c>
       <c r="C8">
@@ -8870,7 +8933,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>43752.270833333336</v>
       </c>
       <c r="C9">
@@ -8894,7 +8957,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>43752.277777777781</v>
       </c>
       <c r="C10">
@@ -8918,7 +8981,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>43752.284722222219</v>
       </c>
       <c r="C11">
@@ -8942,7 +9005,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>43752.291666666664</v>
       </c>
       <c r="C12">
@@ -8966,7 +9029,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>43752.298611111109</v>
       </c>
       <c r="C13">
@@ -8990,7 +9053,7 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>43752.305555555555</v>
       </c>
       <c r="C14">
@@ -9014,7 +9077,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>43752.3125</v>
       </c>
       <c r="C15">
@@ -9038,7 +9101,7 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>43752.319444444445</v>
       </c>
       <c r="C16">
@@ -9062,7 +9125,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>43752.326388888891</v>
       </c>
       <c r="C17">
@@ -9086,7 +9149,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>43752.333333333336</v>
       </c>
       <c r="C18">
@@ -9110,7 +9173,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>43752.340277777781</v>
       </c>
       <c r="C19">
@@ -9134,7 +9197,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>43752.347222222219</v>
       </c>
       <c r="C20">
@@ -9158,7 +9221,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>43752.354166666664</v>
       </c>
       <c r="C21">
@@ -9182,7 +9245,7 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>43752.361111111109</v>
       </c>
       <c r="C22">
@@ -9206,7 +9269,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>43752.368055555555</v>
       </c>
       <c r="C23">
@@ -9230,7 +9293,7 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>43752.375</v>
       </c>
       <c r="C24">
@@ -9254,7 +9317,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>43752.381944444445</v>
       </c>
       <c r="C25">
@@ -9278,7 +9341,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>43752.388888888891</v>
       </c>
       <c r="C26">
@@ -9302,7 +9365,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>43752.395833333336</v>
       </c>
       <c r="C27">
@@ -9326,7 +9389,7 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>43752.402777777781</v>
       </c>
       <c r="C28">
@@ -9350,7 +9413,7 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>43752.409722222219</v>
       </c>
       <c r="C29">
@@ -9374,7 +9437,7 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>43752.416666666664</v>
       </c>
       <c r="C30">
@@ -9398,7 +9461,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>43752.423611111109</v>
       </c>
       <c r="C31">
@@ -9422,7 +9485,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>43752.430555555555</v>
       </c>
       <c r="C32">
@@ -9446,7 +9509,7 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>43752.4375</v>
       </c>
       <c r="C33">
@@ -9470,7 +9533,7 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>43752.444444444445</v>
       </c>
       <c r="C34">
@@ -9494,7 +9557,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>43752.451388888891</v>
       </c>
       <c r="C35">
@@ -9518,7 +9581,7 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>43752.458333333336</v>
       </c>
       <c r="C36">
@@ -9542,7 +9605,7 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>43752.465277777781</v>
       </c>
       <c r="C37">
@@ -9566,7 +9629,7 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>43752.472222222219</v>
       </c>
       <c r="C38">
@@ -9590,7 +9653,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>43752.479166666664</v>
       </c>
       <c r="C39">
@@ -9614,7 +9677,7 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>43752.486111111109</v>
       </c>
       <c r="C40">
@@ -9638,7 +9701,7 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>43752.493055555555</v>
       </c>
       <c r="C41">
@@ -9662,7 +9725,7 @@
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>43752.5</v>
       </c>
       <c r="C42">
@@ -9686,7 +9749,7 @@
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>43752.506944444445</v>
       </c>
       <c r="C43">
@@ -9710,7 +9773,7 @@
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>43752.513888888891</v>
       </c>
       <c r="C44">
@@ -9734,7 +9797,7 @@
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>43752.520833333336</v>
       </c>
       <c r="C45">
@@ -9758,7 +9821,7 @@
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>43752.527777777781</v>
       </c>
       <c r="C46">
@@ -9782,7 +9845,7 @@
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>43752.534722222219</v>
       </c>
       <c r="C47">
@@ -9806,7 +9869,7 @@
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>43752.541666666664</v>
       </c>
       <c r="C48">
@@ -9830,7 +9893,7 @@
       <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>43752.548611111109</v>
       </c>
       <c r="C49">
@@ -9854,7 +9917,7 @@
       <c r="A50">
         <v>45</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>43752.555555555555</v>
       </c>
       <c r="C50">
@@ -9878,7 +9941,7 @@
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>43752.5625</v>
       </c>
       <c r="C51">
@@ -9902,7 +9965,7 @@
       <c r="A52">
         <v>47</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>43752.569444444445</v>
       </c>
       <c r="C52">
@@ -9926,7 +9989,7 @@
       <c r="A53">
         <v>48</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>43752.576388888891</v>
       </c>
       <c r="C53">
@@ -9947,10 +10010,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>43752.583333333336</v>
       </c>
       <c r="C54">
@@ -9974,7 +10037,7 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>43752.590277777781</v>
       </c>
       <c r="C55">
@@ -9998,7 +10061,7 @@
       <c r="A56">
         <v>51</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>43752.597222222219</v>
       </c>
       <c r="C56">
@@ -10022,7 +10085,7 @@
       <c r="A57">
         <v>52</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>43752.604166666664</v>
       </c>
       <c r="C57">
@@ -10046,7 +10109,7 @@
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>43752.611111111109</v>
       </c>
       <c r="C58">
@@ -10070,7 +10133,7 @@
       <c r="A59">
         <v>54</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>43752.618055555555</v>
       </c>
       <c r="C59">
@@ -10094,7 +10157,7 @@
       <c r="A60">
         <v>55</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>43752.625</v>
       </c>
       <c r="C60">
@@ -10118,7 +10181,7 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>43752.631944444445</v>
       </c>
       <c r="C61">
@@ -10142,7 +10205,7 @@
       <c r="A62">
         <v>57</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>43752.638888888891</v>
       </c>
       <c r="C62">
@@ -10166,7 +10229,7 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>43752.645833333336</v>
       </c>
       <c r="C63">
@@ -10190,7 +10253,7 @@
       <c r="A64">
         <v>59</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>43752.652777777781</v>
       </c>
       <c r="C64">
@@ -10214,7 +10277,7 @@
       <c r="A65">
         <v>60</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>43752.659722222219</v>
       </c>
       <c r="C65">
@@ -10238,7 +10301,7 @@
       <c r="A66">
         <v>61</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>43752.666666666664</v>
       </c>
       <c r="C66">
@@ -10262,7 +10325,7 @@
       <c r="A67">
         <v>62</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>43752.673611111109</v>
       </c>
       <c r="C67">
@@ -10286,7 +10349,7 @@
       <c r="A68">
         <v>63</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>43752.680555555555</v>
       </c>
       <c r="C68">
@@ -10310,7 +10373,7 @@
       <c r="A69">
         <v>64</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>43752.6875</v>
       </c>
       <c r="C69">
@@ -10334,7 +10397,7 @@
       <c r="A70">
         <v>65</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>43752.694444444445</v>
       </c>
       <c r="C70">
@@ -10358,7 +10421,7 @@
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>43752.701388888891</v>
       </c>
       <c r="C71">
@@ -10382,7 +10445,7 @@
       <c r="A72">
         <v>67</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>43752.708333333336</v>
       </c>
       <c r="C72">
@@ -10406,7 +10469,7 @@
       <c r="A73">
         <v>68</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>43752.715277777781</v>
       </c>
       <c r="C73">
@@ -10430,7 +10493,7 @@
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>43752.722222222219</v>
       </c>
       <c r="C74">
@@ -10454,7 +10517,7 @@
       <c r="A75">
         <v>70</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>43752.729166666664</v>
       </c>
       <c r="C75">
@@ -10478,7 +10541,7 @@
       <c r="A76">
         <v>71</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>43752.736111111109</v>
       </c>
       <c r="C76">
@@ -10502,7 +10565,7 @@
       <c r="A77">
         <v>72</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>43752.743055555555</v>
       </c>
       <c r="C77">
@@ -10526,7 +10589,7 @@
       <c r="A78">
         <v>73</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>43752.75</v>
       </c>
       <c r="C78">
@@ -10579,13 +10642,13 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10593,21 +10656,21 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
@@ -10636,7 +10699,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>43752.25</v>
       </c>
       <c r="C6">
@@ -10660,7 +10723,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>43752.256944444445</v>
       </c>
       <c r="C7">
@@ -10684,7 +10747,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43752.263888888891</v>
       </c>
       <c r="C8">
@@ -10708,7 +10771,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>43752.270833333336</v>
       </c>
       <c r="C9">
@@ -10732,7 +10795,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>43752.277777777781</v>
       </c>
       <c r="C10">
@@ -10756,7 +10819,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>43752.284722222219</v>
       </c>
       <c r="C11">
@@ -10780,7 +10843,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>43752.291666666664</v>
       </c>
       <c r="C12">
@@ -10804,7 +10867,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>43752.298611111109</v>
       </c>
       <c r="C13">
@@ -10828,7 +10891,7 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>43752.305555555555</v>
       </c>
       <c r="C14">
@@ -10852,7 +10915,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>43752.3125</v>
       </c>
       <c r="C15">
@@ -10876,7 +10939,7 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>43752.319444444445</v>
       </c>
       <c r="C16">
@@ -10900,7 +10963,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>43752.326388888891</v>
       </c>
       <c r="C17">
@@ -10924,7 +10987,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>43752.333333333336</v>
       </c>
       <c r="C18">
@@ -10948,7 +11011,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>43752.340277777781</v>
       </c>
       <c r="C19">
@@ -10972,7 +11035,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>43752.347222222219</v>
       </c>
       <c r="C20">
@@ -10996,7 +11059,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>43752.354166666664</v>
       </c>
       <c r="C21">
@@ -11020,7 +11083,7 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>43752.361111111109</v>
       </c>
       <c r="C22">
@@ -11044,7 +11107,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>43752.368055555555</v>
       </c>
       <c r="C23">
@@ -11068,7 +11131,7 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>43752.375</v>
       </c>
       <c r="C24">
@@ -11092,7 +11155,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>43752.381944444445</v>
       </c>
       <c r="C25">
@@ -11116,7 +11179,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>43752.388888888891</v>
       </c>
       <c r="C26">
@@ -11140,7 +11203,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>43752.395833333336</v>
       </c>
       <c r="C27">
@@ -11164,7 +11227,7 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>43752.402777777781</v>
       </c>
       <c r="C28">
@@ -11188,7 +11251,7 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>43752.409722222219</v>
       </c>
       <c r="C29">
@@ -11212,7 +11275,7 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>43752.416666666664</v>
       </c>
       <c r="C30">
@@ -11236,7 +11299,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>43752.423611111109</v>
       </c>
       <c r="C31">
@@ -11260,7 +11323,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>43752.430555555555</v>
       </c>
       <c r="C32">
@@ -11284,7 +11347,7 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>43752.4375</v>
       </c>
       <c r="C33">
@@ -11308,7 +11371,7 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>43752.444444444445</v>
       </c>
       <c r="C34">
@@ -11332,7 +11395,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>43752.451388888891</v>
       </c>
       <c r="C35">
@@ -11356,7 +11419,7 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>43752.458333333336</v>
       </c>
       <c r="C36">
@@ -11380,7 +11443,7 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>43752.465277777781</v>
       </c>
       <c r="C37">
@@ -11404,7 +11467,7 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>43752.472222222219</v>
       </c>
       <c r="C38">
@@ -11428,7 +11491,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>43752.479166666664</v>
       </c>
       <c r="C39">
@@ -11452,7 +11515,7 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>43752.486111111109</v>
       </c>
       <c r="C40">
@@ -11476,7 +11539,7 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>43752.493055555555</v>
       </c>
       <c r="C41">
@@ -11500,7 +11563,7 @@
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>43752.5</v>
       </c>
       <c r="C42">
@@ -11524,7 +11587,7 @@
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>43752.506944444445</v>
       </c>
       <c r="C43">
@@ -11548,7 +11611,7 @@
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>43752.513888888891</v>
       </c>
       <c r="C44">
@@ -11572,7 +11635,7 @@
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>43752.520833333336</v>
       </c>
       <c r="C45">
@@ -11596,7 +11659,7 @@
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>43752.527777777781</v>
       </c>
       <c r="C46">
@@ -11620,7 +11683,7 @@
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>43752.534722222219</v>
       </c>
       <c r="C47">
@@ -11644,7 +11707,7 @@
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>43752.541666666664</v>
       </c>
       <c r="C48">
@@ -11668,7 +11731,7 @@
       <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>43752.548611111109</v>
       </c>
       <c r="C49">
@@ -11692,7 +11755,7 @@
       <c r="A50">
         <v>45</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>43752.555555555555</v>
       </c>
       <c r="C50">
@@ -11716,7 +11779,7 @@
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>43752.5625</v>
       </c>
       <c r="C51">
@@ -11740,7 +11803,7 @@
       <c r="A52">
         <v>47</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>43752.569444444445</v>
       </c>
       <c r="C52">
@@ -11764,7 +11827,7 @@
       <c r="A53">
         <v>48</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>43752.576388888891</v>
       </c>
       <c r="C53">
@@ -11785,10 +11848,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>49</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>43752.583333333336</v>
       </c>
       <c r="C54">
@@ -11812,7 +11875,7 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>43752.590277777781</v>
       </c>
       <c r="C55">
@@ -11836,7 +11899,7 @@
       <c r="A56">
         <v>51</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>43752.597222222219</v>
       </c>
       <c r="C56">
@@ -11860,7 +11923,7 @@
       <c r="A57">
         <v>52</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>43752.604166666664</v>
       </c>
       <c r="C57">
@@ -11884,7 +11947,7 @@
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>43752.611111111109</v>
       </c>
       <c r="C58">
@@ -11908,7 +11971,7 @@
       <c r="A59">
         <v>54</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>43752.618055555555</v>
       </c>
       <c r="C59">
@@ -11932,7 +11995,7 @@
       <c r="A60">
         <v>55</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>43752.625</v>
       </c>
       <c r="C60">
@@ -11956,7 +12019,7 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>43752.631944444445</v>
       </c>
       <c r="C61">
@@ -11980,7 +12043,7 @@
       <c r="A62">
         <v>57</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>43752.638888888891</v>
       </c>
       <c r="C62">
@@ -12004,7 +12067,7 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>43752.645833333336</v>
       </c>
       <c r="C63">
@@ -12028,7 +12091,7 @@
       <c r="A64">
         <v>59</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>43752.652777777781</v>
       </c>
       <c r="C64">
@@ -12052,7 +12115,7 @@
       <c r="A65">
         <v>60</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>43752.659722222219</v>
       </c>
       <c r="C65">
@@ -12076,7 +12139,7 @@
       <c r="A66">
         <v>61</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>43752.666666666664</v>
       </c>
       <c r="C66">
@@ -12100,7 +12163,7 @@
       <c r="A67">
         <v>62</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>43752.673611111109</v>
       </c>
       <c r="C67">
@@ -12124,7 +12187,7 @@
       <c r="A68">
         <v>63</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>43752.680555555555</v>
       </c>
       <c r="C68">
@@ -12148,7 +12211,7 @@
       <c r="A69">
         <v>64</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>43752.6875</v>
       </c>
       <c r="C69">
@@ -12172,7 +12235,7 @@
       <c r="A70">
         <v>65</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>43752.694444444445</v>
       </c>
       <c r="C70">
@@ -12196,7 +12259,7 @@
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>43752.701388888891</v>
       </c>
       <c r="C71">
@@ -12220,7 +12283,7 @@
       <c r="A72">
         <v>67</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>43752.708333333336</v>
       </c>
       <c r="C72">
@@ -12244,7 +12307,7 @@
       <c r="A73">
         <v>68</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>43752.715277777781</v>
       </c>
       <c r="C73">
@@ -12268,7 +12331,7 @@
       <c r="A74">
         <v>69</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>43752.722222222219</v>
       </c>
       <c r="C74">
@@ -12292,7 +12355,7 @@
       <c r="A75">
         <v>70</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>43752.729166666664</v>
       </c>
       <c r="C75">
@@ -12316,7 +12379,7 @@
       <c r="A76">
         <v>71</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>43752.736111111109</v>
       </c>
       <c r="C76">
@@ -12340,7 +12403,7 @@
       <c r="A77">
         <v>72</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>43752.743055555555</v>
       </c>
       <c r="C77">
@@ -12364,7 +12427,7 @@
       <c r="A78">
         <v>73</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>43752.75</v>
       </c>
       <c r="C78">

--- a/BWSC2019-EneMane/Ps/Ps.xlsx
+++ b/BWSC2019-EneMane/Ps/Ps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\GitHub\solar-energy-management-\BWSC2019-EneMane\Ps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A89837-FD54-45E3-800E-E9A9F46641B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D066E43-3B3A-4835-919A-F8EE81F457E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D44BCD3-D845-4E3A-A4BD-2B3838F8AC19}"/>
   </bookViews>
@@ -281,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +346,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,6 +1093,212 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C011A9DF-A36A-4BD3-9708-FE55E5526DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7665357" y="898072"/>
+          <a:ext cx="2930071" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243115</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>224971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F88EC34-3BF1-479A-A475-6A2AFC879E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4443186" y="451757"/>
+          <a:ext cx="2904671" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>344715</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA0CD2F-8481-41B3-8BE8-E4431E744C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7837714" y="3628571"/>
+          <a:ext cx="5343072" cy="498929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9/30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>山畑：ソーラーカーの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Kpost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と前方車の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Kpost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を記入した方がいいのか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1385,7 +1603,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1437,12 +1655,12 @@
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+      <c r="A4" s="22">
         <v>70</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
